--- a/experiments/Excel files/Graphs/s2c2m2_0_C.xlsx
+++ b/experiments/Excel files/Graphs/s2c2m2_0_C.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charc\eclipse-workspace\TFM_v3\finalExperiments_v3\excel\graficos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1844DA9F-D007-471A-8B3F-EEB671B038B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018C40A7-8DF6-43E7-942B-B5A53862FAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
